--- a/biology/Botanique/Zea_mays_subsp._huehuetenangensis/Zea_mays_subsp._huehuetenangensis.xlsx
+++ b/biology/Botanique/Zea_mays_subsp._huehuetenangensis/Zea_mays_subsp._huehuetenangensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zea mays subsp. huehuetenangensis est une sous-espèce du genre Zea. C'est une téosinte, plante herbacée annuelle, proche du maïs, endémique du Guatemala. Elle est connue localement sous le nom de maiz de pajaro ou maiz de huiscatote.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante assez rare pousse dans la région de Huehuetenango dans le nord-ouest du Guatemala, près de la frontière du Mexique, entre 600 et 1 650 mètres d'altitude. On la trouve souvent dans les parcelles de maïs abandonnées.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus de 5 m de haut.
 Plus de 20 grandes panicule mâles en fin décembre-début janvier avec des épillets de 5 à 7 mm de long (ce qui les distingue de Z. mexicana).
@@ -577,7 +593,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De même numération chromosomique et d'une morphologie génomique très proche du maïs, il s'hybride spontanément avec celui-ci et il n'est pas rare de trouver jusqu'à 8 % d'hybrides aux abords des champs de maïs (et inversement dans le maïs lui-même). Selon certains chercheurs il pourrait être un intermédiaire entre le maïs cultivé et son ancêtre sauvage Zea mays parviglumis.
  Portail des Poaceae                     </t>
